--- a/excels/单位表.xlsx
+++ b/excels/单位表.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\x-template\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CE41EF-440F-4DC1-9961-DFEFB7508C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93393C16-55F6-4A68-B0BA-CA7866CB8B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{AA1B55A0-ECDE-477C-B40B-D1052FD57E4E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{AA1B55A0-ECDE-477C-B40B-D1052FD57E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="custom_units" sheetId="1" r:id="rId1"/>
-    <sheet name="__常用键值说明" sheetId="3" r:id="rId2"/>
+    <sheet name="__常用键值" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">custom_units!$A$1:$BC$3</definedName>
@@ -1635,11 +1635,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71735620-12EF-4565-BA89-7D4715B295C1}">
   <dimension ref="A1:BE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AZ18" sqref="AZ18"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2858,7 +2858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BB33F4-0B57-47F6-A2F1-E89DDFBB91BE}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
